--- a/artfynd/A 32101-2023.xlsx
+++ b/artfynd/A 32101-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112182678</v>
+        <v>112182737</v>
       </c>
       <c r="B2" t="n">
-        <v>76918</v>
+        <v>95538</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6437</v>
+        <v>221941</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>366564.8550036433</v>
+        <v>366498</v>
       </c>
       <c r="R2" t="n">
-        <v>6863268.406394657</v>
+        <v>6863287</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -754,22 +754,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -801,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112182513</v>
+        <v>112182361</v>
       </c>
       <c r="B3" t="n">
-        <v>77267</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,21 +807,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -845,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>366383.8202051007</v>
+        <v>366598</v>
       </c>
       <c r="R3" t="n">
-        <v>6863258.01894963</v>
+        <v>6863309</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -878,19 +868,9 @@
           <t>2023-06-19</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-06-19</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -922,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112182061</v>
+        <v>112182513</v>
       </c>
       <c r="B4" t="n">
-        <v>90678</v>
+        <v>77267</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,30 +914,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4366</v>
+        <v>6446</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -966,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>366319.3633183612</v>
+        <v>366384</v>
       </c>
       <c r="R4" t="n">
-        <v>6863073.096160891</v>
+        <v>6863258</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -996,22 +976,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-19</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-19</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1043,10 +1013,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112182737</v>
+        <v>112182678</v>
       </c>
       <c r="B5" t="n">
-        <v>95538</v>
+        <v>76918</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1055,25 +1025,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221941</v>
+        <v>6437</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1087,10 +1057,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>366498.4215825588</v>
+        <v>366565</v>
       </c>
       <c r="R5" t="n">
-        <v>6863286.584687568</v>
+        <v>6863268</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1117,22 +1087,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-19</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-19</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1164,10 +1124,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112182361</v>
+        <v>112182061</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>90678</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1176,30 +1136,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>4366</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1208,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>366598.1087966941</v>
+        <v>366319</v>
       </c>
       <c r="R6" t="n">
-        <v>6863308.654696698</v>
+        <v>6863073</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1238,22 +1198,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">

--- a/artfynd/A 32101-2023.xlsx
+++ b/artfynd/A 32101-2023.xlsx
@@ -683,7 +683,7 @@
         <v>112182737</v>
       </c>
       <c r="B2" t="n">
-        <v>95538</v>
+        <v>95693</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -791,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112182361</v>
+        <v>112182513</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>77388</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -807,21 +807,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>366598</v>
+        <v>366384</v>
       </c>
       <c r="R3" t="n">
-        <v>6863309</v>
+        <v>6863258</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112182513</v>
+        <v>112182361</v>
       </c>
       <c r="B4" t="n">
-        <v>77267</v>
+        <v>77636</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,21 +918,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>366384</v>
+        <v>366598</v>
       </c>
       <c r="R4" t="n">
-        <v>6863258</v>
+        <v>6863309</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,7 +1016,7 @@
         <v>112182678</v>
       </c>
       <c r="B5" t="n">
-        <v>76918</v>
+        <v>77039</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>112182061</v>
       </c>
       <c r="B6" t="n">
-        <v>90678</v>
+        <v>90812</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>

--- a/artfynd/A 32101-2023.xlsx
+++ b/artfynd/A 32101-2023.xlsx
@@ -683,7 +683,7 @@
         <v>112182737</v>
       </c>
       <c r="B2" t="n">
-        <v>95693</v>
+        <v>95707</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -791,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112182513</v>
+        <v>112182678</v>
       </c>
       <c r="B3" t="n">
-        <v>77388</v>
+        <v>77053</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -807,21 +807,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6446</v>
+        <v>6437</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>366384</v>
+        <v>366565</v>
       </c>
       <c r="R3" t="n">
-        <v>6863258</v>
+        <v>6863268</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -905,7 +905,7 @@
         <v>112182361</v>
       </c>
       <c r="B4" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112182678</v>
+        <v>112182513</v>
       </c>
       <c r="B5" t="n">
-        <v>77039</v>
+        <v>77402</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1029,21 +1029,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6437</v>
+        <v>6446</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>366565</v>
+        <v>366384</v>
       </c>
       <c r="R5" t="n">
-        <v>6863268</v>
+        <v>6863258</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         <v>112182061</v>
       </c>
       <c r="B6" t="n">
-        <v>90812</v>
+        <v>90826</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>

--- a/artfynd/A 32101-2023.xlsx
+++ b/artfynd/A 32101-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112182737</v>
+        <v>112182513</v>
       </c>
       <c r="B2" t="n">
-        <v>95707</v>
+        <v>77402</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221941</v>
+        <v>6446</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>366498</v>
+        <v>366384</v>
       </c>
       <c r="R2" t="n">
-        <v>6863287</v>
+        <v>6863258</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -754,12 +754,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
+          <t>2023-06-19</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
+          <t>2023-06-19</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -902,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112182361</v>
+        <v>112182737</v>
       </c>
       <c r="B4" t="n">
-        <v>77650</v>
+        <v>95707</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -914,25 +914,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>221941</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>366598</v>
+        <v>366498</v>
       </c>
       <c r="R4" t="n">
-        <v>6863309</v>
+        <v>6863287</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -976,12 +976,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1013,10 +1013,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112182513</v>
+        <v>112182361</v>
       </c>
       <c r="B5" t="n">
-        <v>77402</v>
+        <v>77650</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1029,21 +1029,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>366384</v>
+        <v>366598</v>
       </c>
       <c r="R5" t="n">
-        <v>6863258</v>
+        <v>6863309</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
